--- a/TestData/LV_T1516_GiftLog_ClientGiftPreApprovalPageRecipientsExceedsYearlyGiftAllowance.xlsx
+++ b/TestData/LV_T1516_GiftLog_ClientGiftPreApprovalPageRecipientsExceedsYearlyGiftAllowance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F94A5F-1A61-4DF8-B35B-9187867C6F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291FF91-DFFE-42DF-8DC7-C599C555A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <t>vkumar0427@hl.com</t>
   </si>
   <si>
-    <t>Melissa Zatta</t>
+    <t>Julie Carthane</t>
   </si>
 </sst>
 </file>
@@ -569,17 +569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -587,15 +587,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -617,14 +617,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -642,22 +642,22 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -672,26 +672,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -735,11 +735,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -793,16 +793,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -822,7 +822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -858,17 +858,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -882,19 +882,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -908,7 +908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -922,7 +922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -936,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -950,7 +950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -964,7 +964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
